--- a/docs/STAFF-DATA/017.xlsx
+++ b/docs/STAFF-DATA/017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="252">
   <si>
     <t>Name</t>
   </si>
@@ -741,6 +741,48 @@
   </si>
   <si>
     <t>https://scholar.google.com/citations?hl=en&amp;amp;user=rYRLGuUAAAAJ&amp;amp;view_op=list_works&amp;amp;authuser=2&amp;amp;gmla=AGd7smEiJq-eZ4x_2gpuAnB8QltOjnGAzdbFSTfykFlonrl9xQu-zIp_erdO5td1QgawHgoLyLPFewf0lKNszDX</t>
+  </si>
+  <si>
+    <t>VEC-017-03-175</t>
+  </si>
+  <si>
+    <t>VEC-017-04-179</t>
+  </si>
+  <si>
+    <t>VEC-017-04-176</t>
+  </si>
+  <si>
+    <t>VEC-017-04-181</t>
+  </si>
+  <si>
+    <t>VEC-017-02-188</t>
+  </si>
+  <si>
+    <t>VEC-017-04-189</t>
+  </si>
+  <si>
+    <t>VEC-017-04-194</t>
+  </si>
+  <si>
+    <t>VEC-017-01-205</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/u/0/open?usp=forms_web&amp;id=1zjRx5eM8rd-b50uPMZc4ih1lFyGdPCcB</t>
+  </si>
+  <si>
+    <t>https://scholar.google.co.in/citations?user=kECK4sYAAAAJ&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Nirmal-Amal-Raj</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0009-0001-6856-7412</t>
+  </si>
+  <si>
+    <t>https://www.scopus.com/authid/detail.uri?authorId=59511587500</t>
+  </si>
+  <si>
+    <t>https://in.linkedin.com/in/nirmal-raj-a-a8201419</t>
   </si>
 </sst>
 </file>
@@ -1901,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1915,7 +1957,7 @@
     <col min="6" max="6" width="18.1796875" customWidth="1"/>
     <col min="7" max="7" width="16.1796875" customWidth="1"/>
     <col min="8" max="8" width="34.453125" customWidth="1"/>
-    <col min="9" max="9" width="33.453125" customWidth="1"/>
+    <col min="9" max="9" width="57.453125" customWidth="1"/>
     <col min="10" max="10" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1979,6 +2021,9 @@
       <c r="I2" t="s">
         <v>196</v>
       </c>
+      <c r="J2" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -2008,6 +2053,9 @@
       <c r="I3" t="s">
         <v>204</v>
       </c>
+      <c r="J3" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -2025,6 +2073,9 @@
       <c r="I4" t="s">
         <v>208</v>
       </c>
+      <c r="J4" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -2042,6 +2093,9 @@
       <c r="I5" t="s">
         <v>211</v>
       </c>
+      <c r="J5" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -2068,6 +2122,9 @@
       <c r="I6" t="s">
         <v>218</v>
       </c>
+      <c r="J6" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -2097,6 +2154,9 @@
       <c r="I7" t="s">
         <v>227</v>
       </c>
+      <c r="J7" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -2126,6 +2186,9 @@
       <c r="I8" t="s">
         <v>233</v>
       </c>
+      <c r="J8" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -2133,6 +2196,27 @@
       </c>
       <c r="B9" t="s">
         <v>236</v>
+      </c>
+      <c r="C9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" t="s">
+        <v>247</v>
+      </c>
+      <c r="E9" t="s">
+        <v>248</v>
+      </c>
+      <c r="F9" t="s">
+        <v>249</v>
+      </c>
+      <c r="H9" t="s">
+        <v>250</v>
+      </c>
+      <c r="I9" t="s">
+        <v>251</v>
+      </c>
+      <c r="J9" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/docs/STAFF-DATA/017.xlsx
+++ b/docs/STAFF-DATA/017.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="245">
   <si>
     <t>Name</t>
   </si>
@@ -47,7 +47,64 @@
     <t>unique_id</t>
   </si>
   <si>
-    <t>REVATHI</t>
+    <t>NIRMALRAJ A</t>
+  </si>
+  <si>
+    <t>Professor &amp; Head</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/017/VEC-017-01-205.webp</t>
+  </si>
+  <si>
+    <t>https://scholar.google.co.in/citations?user=kECK4sYAAAAJ&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Nirmal-Amal-Raj</t>
+  </si>
+  <si>
+    <t>0009-0001-6856-7412</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>https://www.scopus.com/authid/detail.uri?authorId=59511587500</t>
+  </si>
+  <si>
+    <t>https://in.linkedin.com/in/nirmal-raj-a-a8201419</t>
+  </si>
+  <si>
+    <t>VEC-017-01-205</t>
+  </si>
+  <si>
+    <t>KERINAB BEENU G H</t>
+  </si>
+  <si>
+    <t>Professor</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/017/VEC-017-02-188.webp</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=RU-1t5MAAAAJ</t>
+  </si>
+  <si>
+    <t>researchgate.net/profile/Ghkerinab-Beenu</t>
+  </si>
+  <si>
+    <t>0000-0001-5759-0089</t>
+  </si>
+  <si>
+    <t>AGC-8119-2022</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/dr-beenu-george-stanley-466727154</t>
+  </si>
+  <si>
+    <t>VEC-017-02-188</t>
+  </si>
+  <si>
+    <t>REVATHI D</t>
   </si>
   <si>
     <t>Associate Professor</t>
@@ -65,7 +122,7 @@
     <t>VEC-017-03-175</t>
   </si>
   <si>
-    <t>MUZHUMATHI</t>
+    <t>MUZHUMATHI R</t>
   </si>
   <si>
     <t>Assistant Professor</t>
@@ -80,7 +137,7 @@
     <t>https://www.researchgate.net/profile/Muzhumathi-Rameshkumar.</t>
   </si>
   <si>
-    <t>https://orcid.org/0009-0008-3513-9527</t>
+    <t>0009-0008-3513-9527</t>
   </si>
   <si>
     <t>nil</t>
@@ -95,7 +152,34 @@
     <t>VEC-017-04-176</t>
   </si>
   <si>
-    <t xml:space="preserve">Jenifer Hebziba </t>
+    <t>NAVENA NESA KUMARI J</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/017/VEC-017-04-189.webp</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=DH7RRb0AAAAJ&amp;view_op=list_works</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/J-Kumari?ev=hdr_xprf</t>
+  </si>
+  <si>
+    <t>0000-0001-8324-4964?lang=en</t>
+  </si>
+  <si>
+    <t>Nill</t>
+  </si>
+  <si>
+    <t>https://www.scopus.com/dashboard.uri?origin=AuthorNamesList&amp;zone=TopNavBar</t>
+  </si>
+  <si>
+    <t>Nil</t>
+  </si>
+  <si>
+    <t>VEC-017-04-189</t>
+  </si>
+  <si>
+    <t>JENIFER HEPZIBA I</t>
   </si>
   <si>
     <t>/static/images/profile_photos/017/VEC-017-04-179.webp</t>
@@ -110,124 +194,19 @@
     <t>VEC-017-04-179</t>
   </si>
   <si>
-    <t xml:space="preserve">JAIASHI </t>
+    <t>JAIASHI J</t>
   </si>
   <si>
     <t>/static/images/profile_photos/017/VEC-017-04-181.webp</t>
   </si>
   <si>
-    <t>https://scholar.google.com/citations?hl=en&amp;user=rYRLGuUAAAAJ&amp;view_op=list_works&amp;authuser=2&amp;gmla=AGd7smEiJq-eZ4x_2gpuAnB8QltOjnGAzdbFSTfykFlonrl9xQu-zIp_erdO5td1QgawHgoLyLPFewf0lKNszDX</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/jaiashi-j-5678261b5?trk=contact-info</t>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=rYRLGuUAAAAJ&amp;view_op=list_works</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jaiashi-j-5678261b5</t>
   </si>
   <si>
     <t>VEC-017-04-181</t>
-  </si>
-  <si>
-    <t>Kerinab Beenu</t>
-  </si>
-  <si>
-    <t>Professor</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/017/VEC-017-04-528.webp</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?hl=en&amp;user=RU-1t5MAAAAJ</t>
-  </si>
-  <si>
-    <t>researchgate.net/profile/Ghkerinab-Beenu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://orcid.org/0000-0001-5759-0089 </t>
-  </si>
-  <si>
-    <t>AGC-8119-2022</t>
-  </si>
-  <si>
-    <t>www.linkedin.com/in/dr-beenu-george-stanley-466727154</t>
-  </si>
-  <si>
-    <t>VEC-017-04-528</t>
-  </si>
-  <si>
-    <t>Navena Nesa Kumari</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/017/VEC-017-04-189.webp</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?hl=en&amp;user=DH7RRb0AAAAJ&amp;view_op=list_works&amp;gmla=AOv-ny_TewIA4lxHhMH0-mEj5ICn5ez71B1xH8A8U2awsH48NylbZUWoxA9pJKx7EPJJcp5QJ7hCACUB41VmD6Mm</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/profile/J-Kumari?ev=hdr_xprf</t>
-  </si>
-  <si>
-    <t>https://orcid.org/0000-0001-8324-4964?lang=en</t>
-  </si>
-  <si>
-    <t>Nill</t>
-  </si>
-  <si>
-    <t>https://www.scopus.com/dashboard.uri?origin=AuthorNamesList&amp;zone=TopNavBar</t>
-  </si>
-  <si>
-    <t>Nil</t>
-  </si>
-  <si>
-    <t>VEC-017-04-189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHRISTINA FEBIULA </t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/017/VEC-017-04-194.webp</t>
-  </si>
-  <si>
-    <t>christinafebiula@velammal.edu.in</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/profile/Christina-Febiula?ev=hdr_xprf</t>
-  </si>
-  <si>
-    <t>https://orcid.org/0000-0002-8293-3204</t>
-  </si>
-  <si>
-    <t>https://www.webofscience.com/wos/author/record/MEP-8713-2025</t>
-  </si>
-  <si>
-    <t>linkedin.com/in/christina-febiula-76ab66121</t>
-  </si>
-  <si>
-    <t>VEC-017-04-194</t>
-  </si>
-  <si>
-    <t>Nirmalraj</t>
-  </si>
-  <si>
-    <t>Professor and HOD</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/017/VEC-017-01-205.webp</t>
-  </si>
-  <si>
-    <t>https://scholar.google.co.in/citations?user=kECK4sYAAAAJ&amp;hl=en</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/profile/Nirmal-Amal-Raj</t>
-  </si>
-  <si>
-    <t>https://orcid.org/0009-0001-6856-7412</t>
-  </si>
-  <si>
-    <t>https://www.scopus.com/authid/detail.uri?authorId=59511587500</t>
-  </si>
-  <si>
-    <t>https://in.linkedin.com/in/nirmal-raj-a-a8201419</t>
-  </si>
-  <si>
-    <t>VEC-017-01-205</t>
   </si>
   <si>
     <t>Shyamala Devi</t>
@@ -785,7 +764,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -795,6 +774,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -809,7 +794,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -856,11 +841,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -868,7 +850,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
@@ -876,25 +885,13 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -1205,848 +1202,848 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="E3" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F3" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="G3" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="H3" s="16"/>
+      <c r="I3" s="16" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="4" t="s">
+      <c r="J3" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="B4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D4" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="E4" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G4" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
+      <c r="J4" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="J3" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="16" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="4" t="s">
+      <c r="B5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D5" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E5" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="F5" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="I5" s="16" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="4" t="s">
+      <c r="J5" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="B6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="D6" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="E6" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
+      <c r="F6" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="G6" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="H6" s="16" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="4" t="s">
+      <c r="I6" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="J6" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="B7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="D7" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="J7" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="I6" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="B8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="4" t="s">
+      <c r="D8" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="E8" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="F8" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
+      <c r="G8" s="16"/>
+      <c r="H8" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="I8" s="16" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="4" t="s">
+      <c r="J8" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="B9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="D9" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
+      <c r="J9" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="I8" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="B10" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="4" t="s">
+      <c r="D10" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="E10" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="F10" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4" t="s">
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J10" s="16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B11" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D11" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E11" s="16"/>
+      <c r="F11" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G11" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4" t="s">
+      <c r="H11" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="I11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="16" t="s">
         <v>131</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B12" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D12" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
+      <c r="E12" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="F12" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="G12" s="16"/>
+      <c r="H12" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="I12" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="J11" s="4" t="s">
+      <c r="J12" s="16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="B13" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D13" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="J13" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="I12" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="B14" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="4" t="s">
+      <c r="D14" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="J14" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="B15" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="4" t="s">
+      <c r="D15" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="E15" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="F15" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4" t="s">
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J15" s="16" t="s">
         <v>155</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="B16" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D16" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E16" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F16" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4" t="s">
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J16" s="16" t="s">
         <v>162</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="B17" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D17" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="J17" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="F16" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4" t="s">
+      <c r="B18" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="D18" s="16" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="4" t="s">
+      <c r="E18" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="F18" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4" t="s">
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="J17" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="16" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="4" t="s">
+      <c r="B19" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="D19" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="D18" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="B20" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="D20" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="J18" s="4" t="s">
+      <c r="E20" s="16" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="4" t="s">
+      <c r="F20" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J19" s="4" t="s">
+      <c r="J20" s="16" t="s">
         <v>182</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="B21" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D21" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E21" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G21" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="I21" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4" t="s">
+      <c r="J21" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="J20" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="16" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="4" t="s">
+      <c r="B22" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="D22" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E22" s="16"/>
+      <c r="F22" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F21" s="4" t="s">
+      <c r="G22" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="I21" s="4" t="s">
+      <c r="H22" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="I22" s="16" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="4" t="s">
+      <c r="J22" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="B23" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4" t="s">
+      <c r="D23" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="E23" s="16"/>
+      <c r="F23" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="J23" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="J22" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="16" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="4" t="s">
+      <c r="B24" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="D24" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4" t="s">
+      <c r="J24" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="B25" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="4" t="s">
+      <c r="D25" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="J25" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="B26" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="4" t="s">
+      <c r="D26" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="E26" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="F26" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4" t="s">
+      <c r="G26" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="H26" s="16" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="4" t="s">
+      <c r="I26" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="J26" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="D26" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="B27" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="D27" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="J27" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="I26" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="B28" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="4" t="s">
+      <c r="D28" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="4" t="s">
+      <c r="E28" s="16"/>
+      <c r="F28" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4" t="s">
+      <c r="J28" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="J27" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="16" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="4" t="s">
+      <c r="B29" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="D29" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E29" s="16"/>
+      <c r="F29" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4" t="s">
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4" t="s">
+      <c r="J29" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="J28" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="16" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="4" t="s">
+      <c r="B30" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="D30" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E30" s="16"/>
+      <c r="F30" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4" t="s">
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4" t="s">
+      <c r="J30" s="16" t="s">
         <v>244</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -2059,25 +2056,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="98.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="34.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="36.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="31.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="4.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="13" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="11" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="98.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="34.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="36.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="31.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="14" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="13" width="21.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="13" width="20.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="60">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2087,7 +2084,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -2099,7 +2096,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -2109,240 +2106,226 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="31.5">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="H2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="32.25">
-      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="31.5">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="58.5">
-      <c r="A4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="45">
+      <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="30" customFormat="1" s="7">
-      <c r="A5" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="5" t="s">
+      <c r="H4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="5" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="114" customFormat="1" s="9">
+      <c r="A5" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="32.25">
-      <c r="A6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="B5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J5" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="111.75">
-      <c r="A7" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="70.5">
+      <c r="A6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J6" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="96.75">
+      <c r="A7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="240">
+      <c r="A8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="10">
-        <v>59279760900</v>
-      </c>
-      <c r="I8" s="4" t="s">
+      <c r="B8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="32.25">
-      <c r="A9" s="4" t="s">
+      <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="J8" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/docs/STAFF-DATA/017.xlsx
+++ b/docs/STAFF-DATA/017.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
-    <sheet r:id="rId2" sheetId="2" name="MBA"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MBA" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -762,8 +767,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -842,67 +846,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -913,10 +914,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -954,71 +955,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1046,7 +1047,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1069,11 +1070,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1082,13 +1083,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1098,7 +1099,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1107,7 +1108,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1116,7 +1117,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1124,10 +1125,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1200,21 +1201,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="10" width="13.5546875" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1246,7 +1238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>64</v>
       </c>
@@ -1278,7 +1270,7 @@
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>69</v>
       </c>
@@ -1308,7 +1300,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>77</v>
       </c>
@@ -1340,7 +1332,7 @@
         <v>82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>83</v>
       </c>
@@ -1370,7 +1362,7 @@
         <v>90</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>91</v>
       </c>
@@ -1402,7 +1394,7 @@
         <v>99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>100</v>
       </c>
@@ -1426,7 +1418,7 @@
         <v>104</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>105</v>
       </c>
@@ -1456,7 +1448,7 @@
         <v>112</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>113</v>
       </c>
@@ -1480,7 +1472,7 @@
         <v>117</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>118</v>
       </c>
@@ -1508,7 +1500,7 @@
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>125</v>
       </c>
@@ -1538,7 +1530,7 @@
         <v>131</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>132</v>
       </c>
@@ -1568,7 +1560,7 @@
         <v>138</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>139</v>
       </c>
@@ -1592,7 +1584,7 @@
         <v>143</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>144</v>
       </c>
@@ -1616,7 +1608,7 @@
         <v>148</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>149</v>
       </c>
@@ -1644,7 +1636,7 @@
         <v>155</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>156</v>
       </c>
@@ -1672,7 +1664,7 @@
         <v>162</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>163</v>
       </c>
@@ -1696,7 +1688,7 @@
         <v>166</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>167</v>
       </c>
@@ -1724,7 +1716,7 @@
         <v>172</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>173</v>
       </c>
@@ -1748,7 +1740,7 @@
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>176</v>
       </c>
@@ -1776,7 +1768,7 @@
         <v>182</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>183</v>
       </c>
@@ -1808,7 +1800,7 @@
         <v>188</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>189</v>
       </c>
@@ -1838,7 +1830,7 @@
         <v>196</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>197</v>
       </c>
@@ -1864,7 +1856,7 @@
         <v>202</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>203</v>
       </c>
@@ -1888,7 +1880,7 @@
         <v>207</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>208</v>
       </c>
@@ -1912,7 +1904,7 @@
         <v>212</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>213</v>
       </c>
@@ -1944,7 +1936,7 @@
         <v>221</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>222</v>
       </c>
@@ -1968,7 +1960,7 @@
         <v>226</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>227</v>
       </c>
@@ -1994,7 +1986,7 @@
         <v>232</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>233</v>
       </c>
@@ -2020,7 +2012,7 @@
         <v>238</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>239</v>
       </c>
@@ -2058,23 +2050,25 @@
   </sheetPr>
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="13" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="98.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="34.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="36.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="31.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="13" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="14" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="13" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="13" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="17.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="98.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="60">
+    <row r="1" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2106,7 +2100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="31.5">
+    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -2138,7 +2132,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="31.5">
+    <row r="3" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -2170,7 +2164,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="45">
+    <row r="4" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
@@ -2202,7 +2196,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="114" customFormat="1" s="9">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>35</v>
       </c>
@@ -2234,7 +2228,7 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="70.5">
+    <row r="6" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>45</v>
       </c>
@@ -2266,7 +2260,7 @@
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="96.75">
+    <row r="7" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>54</v>
       </c>
@@ -2298,7 +2292,7 @@
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="240">
+    <row r="8" spans="1:10" ht="240" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>59</v>
       </c>

--- a/docs/STAFF-DATA/017.xlsx
+++ b/docs/STAFF-DATA/017.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="MBA" sheetId="2" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="MBA"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
   <si>
     <t>Name</t>
   </si>
@@ -208,13 +203,49 @@
   </si>
   <si>
     <t>VEC-017-04-181</t>
+  </si>
+  <si>
+    <t>NAFEZA E DR</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/017/VEC-017-04-632.webp</t>
+  </si>
+  <si>
+    <t>VEC-017-04-632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAKKARAVARTHY KUMARESAN R
+CHAKKARAVARTHY KUMARESAN R
+CHAKKARAVARTHY KUMARESAN R
+CHAKKARAVARTHY KUMARESAN R
+CHAKKARAVARTHY KUMARESAN R
+</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/017/VEC-017-04-633.webp</t>
+  </si>
+  <si>
+    <t>VEC-017-04-633</t>
+  </si>
+  <si>
+    <t>SUDHA RANI P</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/017/VEC-017-04-634.webp</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>VEC-017-04-634</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,12 +257,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -291,59 +316,59 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="15">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -354,10 +379,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -395,71 +420,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -487,7 +512,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -510,11 +535,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -523,13 +548,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -539,7 +564,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -548,7 +573,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -557,7 +582,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -565,10 +590,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -637,25 +662,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="98.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="13" width="41.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="28.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="98.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="34.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="36.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="31.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="14" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="13" width="21.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="13" width="20.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -687,7 +712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="46.5">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -697,7 +722,7 @@
       <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -707,7 +732,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -717,7 +742,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="46.5">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -727,7 +752,7 @@
       <c r="C3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -739,7 +764,7 @@
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="4"/>
       <c r="I3" s="3" t="s">
         <v>26</v>
       </c>
@@ -747,7 +772,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="33">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -757,7 +782,7 @@
       <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -769,7 +794,7 @@
       <c r="G4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>31</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -779,39 +804,39 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="7" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="87" customFormat="1" s="6">
+      <c r="A5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="46.5">
       <c r="A6" s="3" t="s">
         <v>44</v>
       </c>
@@ -821,7 +846,7 @@
       <c r="C6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -833,17 +858,17 @@
       <c r="G6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>50</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="46.5">
       <c r="A7" s="3" t="s">
         <v>53</v>
       </c>
@@ -853,13 +878,13 @@
       <c r="C7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="5"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="3" t="s">
         <v>56</v>
       </c>
@@ -867,7 +892,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="240" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="3" t="s">
         <v>58</v>
       </c>
@@ -877,18 +902,82 @@
       <c r="C8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="10"/>
       <c r="I8" s="3" t="s">
         <v>61</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="46.5">
+      <c r="A11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/docs/STAFF-DATA/017.xlsx
+++ b/docs/STAFF-DATA/017.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
   <si>
     <t>Name</t>
   </si>
@@ -215,10 +215,6 @@
   </si>
   <si>
     <t xml:space="preserve">CHAKKARAVARTHY KUMARESAN R
-CHAKKARAVARTHY KUMARESAN R
-CHAKKARAVARTHY KUMARESAN R
-CHAKKARAVARTHY KUMARESAN R
-CHAKKARAVARTHY KUMARESAN R
 </t>
   </si>
   <si>
@@ -232,9 +228,6 @@
   </si>
   <si>
     <t>/static/images/profile_photos/017/VEC-017-04-634.webp</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>VEC-017-04-634</t>
@@ -245,7 +238,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +263,12 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -316,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -342,14 +341,11 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -668,19 +664,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="41.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="28.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="98.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="34.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="36.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="31.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="13" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="14" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="13" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="13" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="41.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="28.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="98.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="34.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="36.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="31.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="12" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="13" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="12" width="21.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="12" width="20.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -712,7 +708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="46.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="47.25">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -742,7 +738,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="46.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="47.25">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -772,7 +768,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -804,7 +800,7 @@
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="87" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="88.5" customFormat="1" s="6">
       <c r="A5" s="3" t="s">
         <v>34</v>
       </c>
@@ -836,7 +832,7 @@
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="46.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="47.25">
       <c r="A6" s="3" t="s">
         <v>44</v>
       </c>
@@ -868,7 +864,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="46.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="47.25">
       <c r="A7" s="3" t="s">
         <v>53</v>
       </c>
@@ -892,7 +888,7 @@
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="47.25">
       <c r="A8" s="3" t="s">
         <v>58</v>
       </c>
@@ -916,7 +912,7 @@
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="9" t="s">
         <v>63</v>
       </c>
@@ -936,7 +932,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
         <v>66</v>
       </c>
@@ -956,7 +952,7 @@
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="46.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3" t="s">
         <v>69</v>
       </c>
@@ -966,18 +962,14 @@
       <c r="C11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>71</v>
-      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="11" t="s">
+      <c r="H11" s="11"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/docs/STAFF-DATA/017.xlsx
+++ b/docs/STAFF-DATA/017.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC58DA7-51B2-4485-828C-81B49B0539FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="MBA"/>
+    <sheet name="MBA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -46,9 +52,6 @@
     <t>unique_id</t>
   </si>
   <si>
-    <t>NIRMALRAJ A</t>
-  </si>
-  <si>
     <t>Professor &amp; Head</t>
   </si>
   <si>
@@ -73,9 +76,6 @@
     <t>VEC-017-01-205</t>
   </si>
   <si>
-    <t>KERINAB BEENU G H</t>
-  </si>
-  <si>
     <t>Professor</t>
   </si>
   <si>
@@ -100,9 +100,6 @@
     <t>VEC-017-02-188</t>
   </si>
   <si>
-    <t>REVATHI D</t>
-  </si>
-  <si>
     <t>Associate Professor</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
     <t>VEC-017-03-175</t>
   </si>
   <si>
-    <t>MUZHUMATHI R</t>
-  </si>
-  <si>
     <t>Assistant Professor</t>
   </si>
   <si>
@@ -148,9 +142,6 @@
     <t>VEC-017-04-176</t>
   </si>
   <si>
-    <t>NAVENA NESA KUMARI J</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/017/VEC-017-04-189.webp</t>
   </si>
   <si>
@@ -175,9 +166,6 @@
     <t>VEC-017-04-189</t>
   </si>
   <si>
-    <t>JENIFER HEPZIBA I</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/017/VEC-017-04-179.webp</t>
   </si>
   <si>
@@ -190,9 +178,6 @@
     <t>VEC-017-04-179</t>
   </si>
   <si>
-    <t>JAIASHI J</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/017/VEC-017-04-181.webp</t>
   </si>
   <si>
@@ -205,39 +190,59 @@
     <t>VEC-017-04-181</t>
   </si>
   <si>
-    <t>NAFEZA E DR</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/017/VEC-017-04-632.webp</t>
   </si>
   <si>
     <t>VEC-017-04-632</t>
   </si>
   <si>
-    <t xml:space="preserve">CHAKKARAVARTHY KUMARESAN R
+    <t>/static/images/profile_photos/017/VEC-017-04-633.webp</t>
+  </si>
+  <si>
+    <t>VEC-017-04-633</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/017/VEC-017-04-634.webp</t>
+  </si>
+  <si>
+    <t>VEC-017-04-634</t>
+  </si>
+  <si>
+    <t>Mr. NIRMALRAJ A</t>
+  </si>
+  <si>
+    <t>Mrs. KERINAB BEENU G H</t>
+  </si>
+  <si>
+    <t>Mrs. REVATHI D</t>
+  </si>
+  <si>
+    <t>Mrs. MUZHUMATHI R</t>
+  </si>
+  <si>
+    <t>Mrs. NAVENA NESA KUMARI J</t>
+  </si>
+  <si>
+    <t>Mrs. JENIFER HEPZIBA I</t>
+  </si>
+  <si>
+    <t>Mrs. JAIASHI J</t>
+  </si>
+  <si>
+    <t>Mrs. NAFEZA E DR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. CHAKKARAVARTHY KUMARESAN R
 </t>
   </si>
   <si>
-    <t>/static/images/profile_photos/017/VEC-017-04-633.webp</t>
-  </si>
-  <si>
-    <t>VEC-017-04-633</t>
-  </si>
-  <si>
-    <t>SUDHA RANI P</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/017/VEC-017-04-634.webp</t>
-  </si>
-  <si>
-    <t>VEC-017-04-634</t>
+    <t>Mrs. SUDHA RANI P</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -316,55 +321,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -375,10 +383,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -416,71 +424,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -508,7 +516,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -531,11 +539,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -544,13 +552,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -560,7 +568,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -569,7 +577,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -578,7 +586,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -586,10 +594,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -654,29 +662,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="12" width="41.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="28.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="98.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="34.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="36.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="31.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="12" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="13" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="12" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="12" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="41.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="98.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -708,219 +718,219 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="47.25">
+    <row r="2" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="47.25">
-      <c r="A3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="H4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:10" s="6" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="C6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="88.5" customFormat="1" s="6">
-      <c r="A5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="47.25">
-      <c r="A6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="47.25">
-      <c r="A7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="4"/>
       <c r="I7" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="47.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="10"/>
       <c r="I8" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -929,18 +939,18 @@
       <c r="H9" s="10"/>
       <c r="I9" s="9"/>
       <c r="J9" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="72">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -949,18 +959,18 @@
       <c r="H10" s="10"/>
       <c r="I10" s="9"/>
       <c r="J10" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -969,7 +979,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/docs/STAFF-DATA/017.xlsx
+++ b/docs/STAFF-DATA/017.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC58DA7-51B2-4485-828C-81B49B0539FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734985ED-C2CA-44E8-86E9-1BA4B9B0E76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="11064" windowHeight="8796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MBA" sheetId="1" r:id="rId1"/>
@@ -208,28 +208,10 @@
     <t>VEC-017-04-634</t>
   </si>
   <si>
-    <t>Mr. NIRMALRAJ A</t>
-  </si>
-  <si>
-    <t>Mrs. KERINAB BEENU G H</t>
-  </si>
-  <si>
-    <t>Mrs. REVATHI D</t>
-  </si>
-  <si>
-    <t>Mrs. MUZHUMATHI R</t>
-  </si>
-  <si>
-    <t>Mrs. NAVENA NESA KUMARI J</t>
-  </si>
-  <si>
     <t>Mrs. JENIFER HEPZIBA I</t>
   </si>
   <si>
     <t>Mrs. JAIASHI J</t>
-  </si>
-  <si>
-    <t>Mrs. NAFEZA E DR</t>
   </si>
   <si>
     <t xml:space="preserve">Mr. CHAKKARAVARTHY KUMARESAN R
@@ -237,6 +219,24 @@
   </si>
   <si>
     <t>Mrs. SUDHA RANI P</t>
+  </si>
+  <si>
+    <t>Dr. NIRMALRAJ A</t>
+  </si>
+  <si>
+    <t>Dr. KERINAB BEENU G H</t>
+  </si>
+  <si>
+    <t>Dr. REVATHI D</t>
+  </si>
+  <si>
+    <t>Dr. MUZHUMATHI R</t>
+  </si>
+  <si>
+    <t>Dr. NAVENA NESA KUMARI J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. NAFEZA E </t>
   </si>
 </sst>
 </file>
@@ -668,8 +668,8 @@
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -720,7 +720,7 @@
     </row>
     <row r="2" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="3" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>18</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>26</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="5" spans="1:10" s="6" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>31</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="6" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>31</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="7" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>31</v>
@@ -900,7 +900,7 @@
     </row>
     <row r="8" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>31</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>31</v>
@@ -944,7 +944,7 @@
     </row>
     <row r="10" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>31</v>
@@ -964,7 +964,7 @@
     </row>
     <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>31</v>

--- a/docs/STAFF-DATA/017.xlsx
+++ b/docs/STAFF-DATA/017.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734985ED-C2CA-44E8-86E9-1BA4B9B0E76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="11064" windowHeight="8796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="11064" windowHeight="8796"/>
   </bookViews>
   <sheets>
     <sheet name="MBA" sheetId="1" r:id="rId1"/>
@@ -242,7 +241,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -662,14 +661,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -874,92 +873,92 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>62</v>
+    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="10"/>
-      <c r="I8" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="I8" s="9"/>
       <c r="J8" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>71</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="9"/>
+        <v>48</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="J9" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>64</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="9"/>
+        <v>52</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="9"/>
+      <c r="I10" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="J10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
